--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal\Google Drive\Universidad (FACSO)\Proyectos - Investigaciones\Investigación\Determinantes del Sentido de Pertenencia Barrial\dse_spb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D65CBD-7EA6-4BE6-BF66-45B4A60EF727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11783285-1764-4209-BD17-9C70767B064B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Modelo Propio" sheetId="1" r:id="rId1"/>
     <sheet name="Modelo PREQ&amp;NA" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="197">
   <si>
     <t>Constructo</t>
   </si>
@@ -79,15 +79,6 @@
     <t>Amenazas, insultos u ofensas de parte de vecinos de su barrio</t>
   </si>
   <si>
-    <t>Frecuencia de Peleas</t>
-  </si>
-  <si>
-    <t>Frecuencia de Robos</t>
-  </si>
-  <si>
-    <t>Frecuencia de Tráfico</t>
-  </si>
-  <si>
     <t>Entorno Territorial</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
   </si>
   <si>
     <t>Grupo etario</t>
-  </si>
-  <si>
-    <t>Ingreso promedio familiar</t>
   </si>
   <si>
     <t xml:space="preserve">Nivel de estudios </t>
@@ -580,9 +568,6 @@
     <t>Percepción de confianza vecinal en el barrio</t>
   </si>
   <si>
-    <t>Experiencias de criminalidad en el barrio</t>
-  </si>
-  <si>
     <t>Percepción de molestias vecinales en el barrio</t>
   </si>
   <si>
@@ -631,9 +616,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>0.76</t>
-  </si>
-  <si>
     <t>0.67</t>
   </si>
   <si>
@@ -653,6 +635,9 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>Estatus Subjetivo</t>
   </si>
 </sst>
 </file>
@@ -707,7 +692,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -917,24 +902,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -957,23 +929,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -981,132 +1056,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1406,841 +1387,792 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>190</v>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="22"/>
+      <c r="A2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="35"/>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>192</v>
+      <c r="F2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>187</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="22"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="37" t="s">
+      <c r="B6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>191</v>
+      <c r="E6" s="21"/>
+      <c r="F6" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="12"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="39" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="37" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>193</v>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="F11" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="37"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>200</v>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>194</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="33"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="57"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="57"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="58"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>195</v>
-      </c>
+    <row r="18" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>190</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="13"/>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>196</v>
-      </c>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="12"/>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="12"/>
+    <row r="24" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>188</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="13"/>
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>188</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>193</v>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>191</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>193</v>
-      </c>
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="58"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>193</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>197</v>
+    <row r="29" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>188</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="47"/>
+    <row r="30" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.71</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
+    <row r="31" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="22"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21" t="s">
+    <row r="32" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="52" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="54" t="s">
+      <c r="D32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>193</v>
-      </c>
+      <c r="G32" s="11"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.71</v>
+    <row r="33" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>195</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="13"/>
+    <row r="34" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="11"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>51</v>
-      </c>
+    <row r="35" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="3" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="E35" s="3"/>
-      <c r="F35" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="23"/>
+      <c r="F35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="11"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>201</v>
-      </c>
+    <row r="36" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="11"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22" t="s">
-        <v>198</v>
+    <row r="37" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="3"/>
-      <c r="F37" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="23"/>
+      <c r="F37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="D38" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E38" s="3"/>
-      <c r="F38" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="23"/>
+      <c r="F38" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="11"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="23"/>
+    <row r="39" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="35"/>
+      <c r="B39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="11"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="40" spans="1:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="23"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="D43" s="3"/>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="49"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="50"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="23"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="14"/>
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="23"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="23"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="23"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="32">
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B29:B31"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G17"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A6:A34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
     <mergeCell ref="F6:F9"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G15:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2251,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAEB304-5B8A-4309-99B3-B17CEBF3606F}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,618 +2197,618 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="D28" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="C34" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="16" t="s">
+      <c r="D37" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="D40" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16" t="s">
+      <c r="D43" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17" t="s">
+      <c r="C46" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17" t="s">
+      <c r="C54" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="60"/>
+      <c r="B60" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="C60" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="60"/>
+      <c r="B64" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C64" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="5" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="60"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="5" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="60"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="5" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="60"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="5" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,24 +2827,9 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C54:C56"/>
     <mergeCell ref="A54:A67"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="C37:C39"/>
@@ -2929,9 +2846,24 @@
     <mergeCell ref="B54:B59"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal\Google Drive\Universidad (FACSO)\Proyectos - Investigaciones\Investigación\Determinantes del Sentido de Pertenencia Barrial\dse_spb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11783285-1764-4209-BD17-9C70767B064B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7320DB-6F52-4847-B914-D998FACB9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelo Propio" sheetId="1" r:id="rId1"/>
-    <sheet name="Modelo PREQ&amp;NA" sheetId="3" r:id="rId2"/>
+    <sheet name="Modelo Nivel Individual" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelo Nivel Individual (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Modelo Multinivel" sheetId="4" r:id="rId3"/>
+    <sheet name="Modelo PREQ&amp;NA" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,8 +36,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={BDC1D545-6320-4B71-8F9F-E55849EB2DB5}</author>
+    <author>tc={F009B57E-8248-45A0-BAB1-F752B3258F4E}</author>
+    <author>tc={35DBB7A8-F273-41B4-B7DE-B3AED333E7EF}</author>
+    <author>tc={38DA1469-D378-421D-A579-688068E52E69}</author>
+    <author>tc={47EF6E1A-1217-4865-86E6-2D8D88CA4D6A}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{BDC1D545-6320-4B71-8F9F-E55849EB2DB5}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tal vez incluir áreas verdes</t>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="1" shapeId="0" xr:uid="{F009B57E-8248-45A0-BAB1-F752B3258F4E}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</t>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="2" shapeId="0" xr:uid="{35DBB7A8-F273-41B4-B7DE-B3AED333E7EF}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Recode</t>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{38DA1469-D378-421D-A579-688068E52E69}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Por ahora mantener como índice continuo</t>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="4" shapeId="0" xr:uid="{47EF6E1A-1217-4865-86E6-2D8D88CA4D6A}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Recode</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={66AA6C7D-711D-4A98-89FF-D9034280B8F9}</author>
+    <author>tc={2BB923DA-6BB9-49FB-95C1-97AAA6282927}</author>
+    <author>tc={DCD310CC-91C6-4DC4-9318-4CD642621806}</author>
+    <author>tc={7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}</author>
+    <author>tc={BF3204D1-73FA-48D1-A300-0B87A5A4EE18}</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{66AA6C7D-711D-4A98-89FF-D9034280B8F9}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tal vez incluir áreas verdes</t>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="1" shapeId="0" xr:uid="{2BB923DA-6BB9-49FB-95C1-97AAA6282927}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</t>
+      </text>
+    </comment>
+    <comment ref="H28" authorId="2" shapeId="0" xr:uid="{DCD310CC-91C6-4DC4-9318-4CD642621806}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Recode</t>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Por ahora mantener como índice continuo</t>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="4" shapeId="0" xr:uid="{BF3204D1-73FA-48D1-A300-0B87A5A4EE18}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    Recode</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="287">
   <si>
     <t>Constructo</t>
   </si>
@@ -514,45 +624,27 @@
     <t xml:space="preserve">Funcional </t>
   </si>
   <si>
-    <t xml:space="preserve">Identidad Barrial </t>
-  </si>
-  <si>
     <t>Presencia de lazos vecinales en el barrio</t>
   </si>
   <si>
-    <t>Economía urbana</t>
-  </si>
-  <si>
     <t>Sentimiento de  inseguridad en el barrio</t>
   </si>
   <si>
-    <t>Visual-perceptivo</t>
-  </si>
-  <si>
     <t>Me agrada el aspecto físico del barrio</t>
   </si>
   <si>
     <t>Satisfacción con la estética del barrio</t>
   </si>
   <si>
-    <t>Matenimiento y cuidado</t>
-  </si>
-  <si>
     <t>Limpieza y belleza del barrio</t>
   </si>
   <si>
-    <t>Areas verdes y de recreación disponibles</t>
-  </si>
-  <si>
     <t>Santisfacción con el mantenimiento del barrio</t>
   </si>
   <si>
     <t>Prestigio</t>
   </si>
   <si>
-    <t>Estilos de vida</t>
-  </si>
-  <si>
     <t>Han llegado al barrio residentes que no me agradan</t>
   </si>
   <si>
@@ -574,18 +666,12 @@
     <t>Satisfacción con geografía de oportunidades del barrio</t>
   </si>
   <si>
-    <t>Satisfacción con areas verdes disponibles en el barrio</t>
-  </si>
-  <si>
     <t>Percepción de estigmatización del barrio</t>
   </si>
   <si>
     <t>Presencia de estilos de vida deseables en el barrio</t>
   </si>
   <si>
-    <t>Socio-relacional</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conflictividad social </t>
   </si>
   <si>
@@ -631,20 +717,570 @@
     <t>Código</t>
   </si>
   <si>
-    <t>0.79</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
     <t>Estatus Subjetivo</t>
+  </si>
+  <si>
+    <t>Económica</t>
+  </si>
+  <si>
+    <t>Moral</t>
+  </si>
+  <si>
+    <t>Económico</t>
+  </si>
+  <si>
+    <t>Estético-perceptual</t>
+  </si>
+  <si>
+    <t>Presencia de unidad valórica en el barrio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Apego barrial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: nivel de pertenencia que la persona siente hacia la comunidad barrial </t>
+    </r>
+  </si>
+  <si>
+    <t>Controles sociodemográficos</t>
+  </si>
+  <si>
+    <t>Nivel educacional</t>
+  </si>
+  <si>
+    <t>Regimen de vivienda</t>
+  </si>
+  <si>
+    <t>Tiempo de residencia</t>
+  </si>
+  <si>
+    <t>Estatus social subjetivo</t>
+  </si>
+  <si>
+    <t>Percepción de prácticas deseables en el barrio</t>
+  </si>
+  <si>
+    <t>Percepción de  valores deseables en el barrio</t>
+  </si>
+  <si>
+    <t>Percepción sobre la evaluación del barrio por externos</t>
+  </si>
+  <si>
+    <t>Nivel de medición</t>
+  </si>
+  <si>
+    <t>Cuantitativa continua</t>
+  </si>
+  <si>
+    <t>Valores de la escala</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Social</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evaluación positiva de pautas de interacción social situadas en el barrio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Simbólica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evaluación positiva de las distinciones conceptuales utilizadas para categorizar la comunidad barrial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Física</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>evaluación positiva de la localización del barrio en cuanto a su capacidad de satisfacer necesidades de accesibilidad a diversos bienes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Psico-afectiva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">valoración positiva de los sentimientos hacia comunidad barrial </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apego barrial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vínculo afectivo que la persona siente hacia el lugar residencial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sentido de pertenencia al barrio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nivel de pertenencia que la persona siente hacia el barrio</t>
+    </r>
+  </si>
+  <si>
+    <t>Presencia de lazos sociales fuertes</t>
+  </si>
+  <si>
+    <t>Indicador/Items</t>
+  </si>
+  <si>
+    <t>Subíndice/Indice/Indicador</t>
+  </si>
+  <si>
+    <t>Constructo/Variable</t>
+  </si>
+  <si>
+    <t>Categórica Ordinal</t>
+  </si>
+  <si>
+    <t>(1)=Muy poco; (2)=Poco; (3)=Algo; (4)=Bastante; (5)=Mucho</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Experiencia de Habitar: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evaluación del lugar residencial en cuanto a su capacidad de brindar un buen vivir</t>
+    </r>
+  </si>
+  <si>
+    <t>(1) a 5, donde (1) es muy bajo y (5) es muy alto nivel de pertenencia barrial</t>
+  </si>
+  <si>
+    <t>(1) a (5), donde (1) es muy bajo nivel y (5) es muy alto nivel de sociabildiad barrial</t>
+  </si>
+  <si>
+    <t>(1) a (5), donde (1) es muy bajo nivel y (5) es muy alto nivel de conflictividad barrial</t>
+  </si>
+  <si>
+    <t>(1) a (5), donde (1) es muy bajo grado y (5) es muy alto grado de satisfacción con la localización del barrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percepción encarecimiento de bienes y servicios </t>
+  </si>
+  <si>
+    <t>(1) a (5), donde (1) es muy bajo grado y  (5) es muy alto grado de percepción de encarecimiento urbano</t>
+  </si>
+  <si>
+    <t>Categórica Nominal</t>
+  </si>
+  <si>
+    <t>(1)=Experiencia de estigma; (2) Sin estigma ni prestigio; (3) Experiencia de prestigio</t>
+  </si>
+  <si>
+    <t>Percepción de reputación barrial</t>
+  </si>
+  <si>
+    <t>(1)=experiencia de valores deseables; (2) experiencia de valores indeseables</t>
+  </si>
+  <si>
+    <t>(1)=experiencia de prácticas deseables; (2) experiencia de prácticas indeseables</t>
+  </si>
+  <si>
+    <t>Sexo/Género</t>
+  </si>
+  <si>
+    <t>Tiempo en años de residencia en el barrio</t>
+  </si>
+  <si>
+    <t>m34_03</t>
+  </si>
+  <si>
+    <t>La casa donde vive actualmente es</t>
+  </si>
+  <si>
+    <t>Sexo del encuestado</t>
+  </si>
+  <si>
+    <t>Edad del encuestado</t>
+  </si>
+  <si>
+    <t>d01_01</t>
+  </si>
+  <si>
+    <t>(1)=hombre; (2) mujer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)=clase baja, (2)=clase media y (3)=clase alta </t>
+  </si>
+  <si>
+    <t>Nivel de estudios alcanzado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1)=básica; (2)=media; (3)=técnica y (4)=universitaria. </t>
+  </si>
+  <si>
+    <t>(1)=18 a 29, (2)=30 a 49 (3)=50 a 64 y (4)=64 o más</t>
+  </si>
+  <si>
+    <t>t02_01</t>
+  </si>
+  <si>
+    <t>t02_02</t>
+  </si>
+  <si>
+    <t>t02_03</t>
+  </si>
+  <si>
+    <t>t02_04</t>
+  </si>
+  <si>
+    <t>t03_01</t>
+  </si>
+  <si>
+    <t>t03_02</t>
+  </si>
+  <si>
+    <t>t03_03</t>
+  </si>
+  <si>
+    <t>t03_04</t>
+  </si>
+  <si>
+    <t>t01</t>
+  </si>
+  <si>
+    <t>t11_01</t>
+  </si>
+  <si>
+    <t>t11_02</t>
+  </si>
+  <si>
+    <t>t11_03</t>
+  </si>
+  <si>
+    <t>t11_04</t>
+  </si>
+  <si>
+    <t>t06_05</t>
+  </si>
+  <si>
+    <t>t06_06</t>
+  </si>
+  <si>
+    <t>t06_07</t>
+  </si>
+  <si>
+    <t>t06_02</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t06_01</t>
+  </si>
+  <si>
+    <t>t04_02</t>
+  </si>
+  <si>
+    <t>t04_03</t>
+  </si>
+  <si>
+    <t>t04_04</t>
+  </si>
+  <si>
+    <t>m33</t>
+  </si>
+  <si>
+    <t>t06_04</t>
+  </si>
+  <si>
+    <t>t06_08</t>
+  </si>
+  <si>
+    <t>t08</t>
+  </si>
+  <si>
+    <t>t04_06</t>
+  </si>
+  <si>
+    <t>t04_07</t>
+  </si>
+  <si>
+    <t>t04_01</t>
+  </si>
+  <si>
+    <t>m0_sexo</t>
+  </si>
+  <si>
+    <t>m0_edad</t>
+  </si>
+  <si>
+    <t>m01</t>
+  </si>
+  <si>
+    <t>Autopercepción sobre posición en la sociedad</t>
+  </si>
+  <si>
+    <t>Afiliación a organización vecinal</t>
+  </si>
+  <si>
+    <t>Participación en juntas de vecinos y organización vecinal</t>
+  </si>
+  <si>
+    <t>c12_01</t>
+  </si>
+  <si>
+    <t>(1)=no miembro; (2)=miembro inactivo; (3) miembro activo</t>
+  </si>
+  <si>
+    <t>(1)=Experiencia de inseguridad; (2)=Ni seguro ni inseguro; (3)=Experiencia de seguridad</t>
+  </si>
+  <si>
+    <t>(1)=no propietario; (2)=propietario</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sociabilidad barrial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nivel de calidad de las relaciones sociales en el barrio</t>
+    </r>
+  </si>
+  <si>
+    <t>Características adscriptivas</t>
+  </si>
+  <si>
+    <t>Condición socioeconómica</t>
+  </si>
+  <si>
+    <t>Situación habitacional</t>
+  </si>
+  <si>
+    <t>Participación cívica</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Escala continua de entre 0 a 80 años</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +1307,56 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -692,7 +1378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -902,146 +1588,582 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,38 +2178,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,6 +2211,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Cristobal Ignacio Ortiz Vilches (cristobal.ortiz.v)" id="{F253D5C5-E148-452D-8469-1E3243538D0E}" userId="Cristobal Ignacio Ortiz Vilches (cristobal.ortiz.v)" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,18 +2480,1764 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2021-07-05T07:23:55.41" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{BDC1D545-6320-4B71-8F9F-E55849EB2DB5}">
+    <text>Tal vez incluir áreas verdes</text>
+  </threadedComment>
+  <threadedComment ref="C25" dT="2021-07-05T05:06:36.87" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{F009B57E-8248-45A0-BAB1-F752B3258F4E}">
+    <text>Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</text>
+  </threadedComment>
+  <threadedComment ref="H28" dT="2021-07-05T04:24:22.29" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{35DBB7A8-F273-41B4-B7DE-B3AED333E7EF}">
+    <text>Recode</text>
+  </threadedComment>
+  <threadedComment ref="I28" dT="2021-07-05T03:43:11.37" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{38DA1469-D378-421D-A579-688068E52E69}">
+    <text>Por ahora mantener como índice continuo</text>
+  </threadedComment>
+  <threadedComment ref="H29" dT="2021-07-05T04:24:09.95" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{47EF6E1A-1217-4865-86E6-2D8D88CA4D6A}">
+    <text>Recode</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B18" dT="2021-07-05T07:23:55.41" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{66AA6C7D-711D-4A98-89FF-D9034280B8F9}">
+    <text>Tal vez incluir áreas verdes</text>
+  </threadedComment>
+  <threadedComment ref="C25" dT="2021-07-05T05:06:36.87" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{2BB923DA-6BB9-49FB-95C1-97AAA6282927}">
+    <text>Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</text>
+  </threadedComment>
+  <threadedComment ref="H28" dT="2021-07-05T04:24:22.29" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{DCD310CC-91C6-4DC4-9318-4CD642621806}">
+    <text>Recode</text>
+  </threadedComment>
+  <threadedComment ref="I28" dT="2021-07-05T03:43:11.37" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}">
+    <text>Por ahora mantener como índice continuo</text>
+  </threadedComment>
+  <threadedComment ref="H29" dT="2021-07-05T04:24:09.95" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{BF3204D1-73FA-48D1-A300-0B87A5A4EE18}">
+    <text>Recode</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="127"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="125"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="128"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="137"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="125"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="125"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="137"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="147"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="79" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="81"/>
+      <c r="I11" s="49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="125"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="136"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="147"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="125"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="125"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="145"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="139"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="146"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="139"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="127"/>
+      <c r="B27" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="71" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="124">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="128"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="147"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="131"/>
+      <c r="B32" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="61" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="131"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
+      <c r="B34" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="127"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="128"/>
+      <c r="B36" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="A6:A29"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F6:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE74D46-C036-467C-82A9-D4CCBDD7F69E}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="130"/>
+      <c r="D2" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="135" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="127"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="136"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="127"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="136"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="125"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="128"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" s="137"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="126" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="123" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="G6" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="148" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="124" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="136"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="125"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="123" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="125"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="123" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="137"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="147"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="114"/>
+      <c r="I11" s="107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
+      <c r="C12" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>258</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="109" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="115" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="125"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="F16" s="136"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="125"/>
+    </row>
+    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="127"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="147"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="126" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="F18" s="135" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="148" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" s="124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="127"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="125"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
+      <c r="B20" s="127"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="125"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="127"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="147"/>
+    </row>
+    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="141" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="151" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="138" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="145"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="139"/>
+    </row>
+    <row r="24" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="146"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="139"/>
+    </row>
+    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="129" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="127"/>
+      <c r="B27" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="I27" s="106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="115" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="I28" s="124">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="128"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="I29" s="147"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E30" s="115" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="I30" s="90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="127"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="131"/>
+      <c r="B32" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E32" s="115" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="111" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="I32" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="131"/>
+      <c r="B33" s="143"/>
+      <c r="C33" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="117" t="s">
+        <v>235</v>
+      </c>
+      <c r="F33" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="127"/>
+      <c r="B34" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="115" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="88" t="s">
+        <v>279</v>
+      </c>
+      <c r="I34" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="127"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="117" t="s">
+        <v>231</v>
+      </c>
+      <c r="F35" s="120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="88" t="s">
+        <v>286</v>
+      </c>
+      <c r="I35" s="91" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="128"/>
+      <c r="B36" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="101" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>224</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="122"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="122"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="A6:A29"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B67ACD1-4F9A-4A75-9BB2-737E89711034}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.42578125" customWidth="1"/>
@@ -1387,791 +4246,768 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="27" t="s">
         <v>185</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>177</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="155" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="158"/>
+      <c r="D2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="161" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="164" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="156"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="156"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="155" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="161" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="167" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+    </row>
+    <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="35" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="167" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="33"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="33"/>
+    </row>
+    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="170" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" s="164" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="156"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="156"/>
+      <c r="B19" s="155" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="167" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="161" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="164" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="173" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="177" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="178"/>
+    </row>
+    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="178"/>
+    </row>
+    <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="156"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="167" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="156"/>
+      <c r="B28" s="184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="156"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="173" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="165">
+        <v>0.71</v>
+      </c>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="157"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="166"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="159"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="159"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="159"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+    </row>
+    <row r="35" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="159"/>
+      <c r="B35" s="159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+    </row>
+    <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="159"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+    </row>
+    <row r="38" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="159"/>
+      <c r="B38" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+    </row>
+    <row r="39" spans="1:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="27"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="182"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="183"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+    </row>
+    <row r="44" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G30" s="36">
-        <v>0.71</v>
-      </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="49"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="50"/>
-    </row>
-    <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+    </row>
+    <row r="46" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="3" t="s">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="F19:F22"/>
     <mergeCell ref="G19:G22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A6:A30"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F15:F18"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G15:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2179,654 +5015,675 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAEB304-5B8A-4309-99B3-B17CEBF3606F}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="73.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="189"/>
+      <c r="B4" s="189"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="189"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="189"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="189"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61" t="s">
+      <c r="A9" s="189"/>
+      <c r="B9" s="189"/>
+      <c r="C9" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="189"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="189"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="189"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="189"/>
+      <c r="B13" s="189"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="5" t="s">
+      <c r="A14" s="189"/>
+      <c r="B14" s="189"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="189"/>
+      <c r="B15" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="5" t="s">
+      <c r="A16" s="189"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="5" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61" t="s">
+      <c r="A18" s="189"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="188" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="5" t="s">
+      <c r="A19" s="189"/>
+      <c r="B19" s="189"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="5" t="s">
+      <c r="A20" s="189"/>
+      <c r="B20" s="189"/>
+      <c r="C20" s="188"/>
+      <c r="D20" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="189"/>
+      <c r="B21" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="5" t="s">
+      <c r="A22" s="189"/>
+      <c r="B22" s="189"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="5" t="s">
+      <c r="A23" s="189"/>
+      <c r="B23" s="189"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="5" t="s">
+      <c r="A24" s="189"/>
+      <c r="B24" s="189"/>
+      <c r="C24" s="188"/>
+      <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="60" t="s">
+      <c r="A25" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="5" t="s">
+      <c r="A26" s="189"/>
+      <c r="B26" s="189"/>
+      <c r="C26" s="188"/>
+      <c r="D26" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="5" t="s">
+      <c r="A27" s="189"/>
+      <c r="B27" s="189"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="188" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="189"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="5" t="s">
+      <c r="A30" s="189"/>
+      <c r="B30" s="189"/>
+      <c r="C30" s="188"/>
+      <c r="D30" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61" t="s">
+      <c r="A31" s="189"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="188" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="5" t="s">
+      <c r="A32" s="189"/>
+      <c r="B32" s="189"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="5" t="s">
+      <c r="A33" s="189"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="5" t="s">
+      <c r="A35" s="189"/>
+      <c r="B35" s="189"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="5" t="s">
+      <c r="A36" s="189"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61" t="s">
+      <c r="A37" s="189"/>
+      <c r="B37" s="189"/>
+      <c r="C37" s="188" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="5" t="s">
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="5" t="s">
+      <c r="A39" s="189"/>
+      <c r="B39" s="189"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60" t="s">
+      <c r="A40" s="189"/>
+      <c r="B40" s="189" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="5" t="s">
+      <c r="A41" s="189"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="5" t="s">
+      <c r="A42" s="189"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61" t="s">
+      <c r="A43" s="189"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="189"/>
+      <c r="B44" s="189"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="5" t="s">
+      <c r="A45" s="189"/>
+      <c r="B45" s="189"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="189"/>
+      <c r="B46" s="189" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="C46" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="5" t="s">
+      <c r="A47" s="189"/>
+      <c r="B47" s="189"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="5" t="s">
+      <c r="A48" s="189"/>
+      <c r="B48" s="189"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="5" t="s">
+      <c r="A49" s="189"/>
+      <c r="B49" s="189"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60" t="s">
+      <c r="A50" s="189"/>
+      <c r="B50" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="5" t="s">
+      <c r="A51" s="189"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="5" t="s">
+      <c r="A52" s="189"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="5" t="s">
+      <c r="A53" s="189"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="189" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="C54" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="5" t="s">
+      <c r="A55" s="189"/>
+      <c r="B55" s="189"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="60"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="5" t="s">
+      <c r="A56" s="189"/>
+      <c r="B56" s="189"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61" t="s">
+      <c r="A57" s="189"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="188" t="s">
         <v>84</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="5" t="s">
+      <c r="A58" s="189"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="188"/>
+      <c r="D58" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="5" t="s">
+      <c r="A59" s="189"/>
+      <c r="B59" s="189"/>
+      <c r="C59" s="188"/>
+      <c r="D59" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="60"/>
-      <c r="B60" s="60" t="s">
+      <c r="A60" s="189"/>
+      <c r="B60" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="188" t="s">
         <v>85</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="5" t="s">
+      <c r="A61" s="189"/>
+      <c r="B61" s="189"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="189"/>
+      <c r="B62" s="189"/>
+      <c r="C62" s="188"/>
+      <c r="D62" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="189"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="60"/>
-      <c r="B64" s="60" t="s">
+      <c r="A64" s="189"/>
+      <c r="B64" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="61" t="s">
+      <c r="C64" s="188" t="s">
         <v>86</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="60"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="5" t="s">
+      <c r="A65" s="189"/>
+      <c r="B65" s="189"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="60"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="5" t="s">
+      <c r="A66" s="189"/>
+      <c r="B66" s="189"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="5" t="s">
+      <c r="A67" s="189"/>
+      <c r="B67" s="189"/>
+      <c r="C67" s="188"/>
+      <c r="D67" s="4" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <f>COUNTA(B2:B67)</f>
         <v>12</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="4">
         <f>COUNTA(C2:C67)</f>
         <v>20</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <f>COUNTA(D2:D67)</f>
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B25:B33"/>
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="C54:C56"/>
@@ -2843,27 +5700,6 @@
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="A34:A53"/>
     <mergeCell ref="C57:C59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal\Google Drive\Universidad (FACSO)\Proyectos - Investigaciones\Investigación\Determinantes del Sentido de Pertenencia Barrial\dse_spb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristobal\Google Drive\Proyectos - Investigaciones\Investigación\Determinantes del Apego Barrial\apego-barrial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7320DB-6F52-4847-B914-D998FACB9329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F535668-A3B2-4827-B27B-311421ED2E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelo Nivel Individual" sheetId="1" r:id="rId1"/>
-    <sheet name="Modelo Nivel Individual (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Modelo Multinivel" sheetId="4" r:id="rId3"/>
-    <sheet name="Modelo PREQ&amp;NA" sheetId="3" r:id="rId4"/>
+    <sheet name="cap1" sheetId="1" r:id="rId1"/>
+    <sheet name="cap1 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="cap1 (3)" sheetId="6" r:id="rId3"/>
+    <sheet name="cap2" sheetId="4" r:id="rId4"/>
+    <sheet name="preq&amp;na" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -90,62 +91,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={66AA6C7D-711D-4A98-89FF-D9034280B8F9}</author>
-    <author>tc={2BB923DA-6BB9-49FB-95C1-97AAA6282927}</author>
-    <author>tc={DCD310CC-91C6-4DC4-9318-4CD642621806}</author>
-    <author>tc={7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}</author>
-    <author>tc={BF3204D1-73FA-48D1-A300-0B87A5A4EE18}</author>
-  </authors>
-  <commentList>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{66AA6C7D-711D-4A98-89FF-D9034280B8F9}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Tal vez incluir áreas verdes</t>
-      </text>
-    </comment>
-    <comment ref="C25" authorId="1" shapeId="0" xr:uid="{2BB923DA-6BB9-49FB-95C1-97AAA6282927}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</t>
-      </text>
-    </comment>
-    <comment ref="H28" authorId="2" shapeId="0" xr:uid="{DCD310CC-91C6-4DC4-9318-4CD642621806}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Recode</t>
-      </text>
-    </comment>
-    <comment ref="I28" authorId="3" shapeId="0" xr:uid="{7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Por ahora mantener como índice continuo</t>
-      </text>
-    </comment>
-    <comment ref="H29" authorId="4" shapeId="0" xr:uid="{BF3204D1-73FA-48D1-A300-0B87A5A4EE18}">
-      <text>
-        <t>[Comentario encadenado]
-Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
-Comentario:
-    Recode</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="316">
   <si>
     <t>Constructo</t>
   </si>
@@ -1275,12 +1222,99 @@
   <si>
     <t>Escala continua de entre 0 a 80 años</t>
   </si>
+  <si>
+    <t>Indicador</t>
+  </si>
+  <si>
+    <t>Deseabilidad social</t>
+  </si>
+  <si>
+    <t>Encarecimiento barrial</t>
+  </si>
+  <si>
+    <t>Reputación barrial</t>
+  </si>
+  <si>
+    <t>Sociabilidad barrial</t>
+  </si>
+  <si>
+    <t>Confianza en vecinos</t>
+  </si>
+  <si>
+    <t>Seguridad barrial</t>
+  </si>
+  <si>
+    <t>Molestias vecinales</t>
+  </si>
+  <si>
+    <t>Accesibilidad barrial</t>
+  </si>
+  <si>
+    <t>Apego barrial</t>
+  </si>
+  <si>
+    <t>Experiencia de Habitar</t>
+  </si>
+  <si>
+    <t>Física</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Númerica</t>
+  </si>
+  <si>
+    <t>Categórica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores </t>
+  </si>
+  <si>
+    <t>1 a 5</t>
+  </si>
+  <si>
+    <t>1 a 75 años</t>
+  </si>
+  <si>
+    <t>0= negativa; 1=neutra; 2=positiva</t>
+  </si>
+  <si>
+    <t>0=18-29; 1=30-49; 2=50-64; =&gt;65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0=clase baja, 1=clase media; 2=clase alta </t>
+  </si>
+  <si>
+    <t>0=propietario; 1=no propietario</t>
+  </si>
+  <si>
+    <t>0=básica; 1=media; 2=técnica; 3=universitaria</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>0=baja; 1=media; 2=alta</t>
+  </si>
+  <si>
+    <t>0=hombre; 1=mujer</t>
+  </si>
+  <si>
+    <t>Alfa Cronbach</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1350,12 +1384,6 @@
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1629,7 +1657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1953,13 +1981,160 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1971,6 +2146,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1992,209 +2203,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,31 +2621,11 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B18" dT="2021-07-05T07:23:55.41" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{66AA6C7D-711D-4A98-89FF-D9034280B8F9}">
-    <text>Tal vez incluir áreas verdes</text>
-  </threadedComment>
-  <threadedComment ref="C25" dT="2021-07-05T05:06:36.87" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{2BB923DA-6BB9-49FB-95C1-97AAA6282927}">
-    <text>Tal vez incluir tamaño de vivienda (t07_01) y calidad de vivienda (t07_02)</text>
-  </threadedComment>
-  <threadedComment ref="H28" dT="2021-07-05T04:24:22.29" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{DCD310CC-91C6-4DC4-9318-4CD642621806}">
-    <text>Recode</text>
-  </threadedComment>
-  <threadedComment ref="I28" dT="2021-07-05T03:43:11.37" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{7F9E99C7-2B86-4CA5-B6EA-A8B300C362D2}">
-    <text>Por ahora mantener como índice continuo</text>
-  </threadedComment>
-  <threadedComment ref="H29" dT="2021-07-05T04:24:09.95" personId="{F253D5C5-E148-452D-8469-1E3243538D0E}" id="{BF3204D1-73FA-48D1-A300-0B87A5A4EE18}">
-    <text>Recode</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A29"/>
     </sheetView>
   </sheetViews>
@@ -2571,85 +2672,85 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="176"/>
       <c r="D2" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="152" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="45" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="125"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="125"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="178"/>
       <c r="D5" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="147"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="154"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2658,68 +2759,68 @@
       <c r="E6" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="152" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="131"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="45" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="125"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="45" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="125"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="153"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="46" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="147"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="154"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="129" t="s">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="171" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="44" t="s">
@@ -2742,9 +2843,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="133"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="172"/>
       <c r="D11" s="46" t="s">
         <v>10</v>
       </c>
@@ -2763,9 +2864,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="131" t="s">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="157" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="45" t="s">
@@ -2788,9 +2889,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="133"/>
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="172"/>
       <c r="D13" s="46" t="s">
         <v>44</v>
       </c>
@@ -2811,9 +2912,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="129" t="s">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="171" t="s">
         <v>171</v>
       </c>
       <c r="D14" s="44" t="s">
@@ -2822,70 +2923,70 @@
       <c r="E14" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="179" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="124" t="s">
+      <c r="G14" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="I14" s="124" t="s">
+      <c r="I14" s="152" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="131"/>
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="157"/>
       <c r="D15" s="45" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="125"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="153"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="131"/>
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="157"/>
       <c r="D16" s="45" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="125"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="153"/>
     </row>
     <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="133"/>
+      <c r="A17" s="156"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="172"/>
       <c r="D17" s="46" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="147"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="154"/>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="126" t="s">
+      <c r="A18" s="156"/>
+      <c r="B18" s="155" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="171" t="s">
         <v>154</v>
       </c>
       <c r="D18" s="44" t="s">
@@ -2894,68 +2995,68 @@
       <c r="E18" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="F18" s="135" t="s">
+      <c r="F18" s="179" t="s">
         <v>168</v>
       </c>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="148" t="s">
+      <c r="H18" s="161" t="s">
         <v>221</v>
       </c>
-      <c r="I18" s="124" t="s">
+      <c r="I18" s="152" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="131"/>
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="157"/>
       <c r="D19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="125"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="162"/>
+      <c r="I19" s="153"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="131"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="157"/>
       <c r="D20" s="45" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="125"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="153"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="131"/>
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="157"/>
       <c r="D21" s="45" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="147"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="154"/>
     </row>
     <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="141" t="s">
+      <c r="A22" s="156"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="166" t="s">
         <v>188</v>
       </c>
       <c r="D22" s="51" t="s">
@@ -2964,53 +3065,53 @@
       <c r="E22" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="F22" s="144" t="s">
+      <c r="F22" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="138" t="s">
+      <c r="G22" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="151" t="s">
+      <c r="H22" s="164" t="s">
         <v>223</v>
       </c>
-      <c r="I22" s="138" t="s">
+      <c r="I22" s="159" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="142"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="52" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="43" t="s">
         <v>261</v>
       </c>
-      <c r="F23" s="145"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="139"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="160"/>
     </row>
     <row r="24" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="143"/>
+      <c r="A24" s="156"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="170"/>
       <c r="D24" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="139"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="160"/>
     </row>
     <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="129" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="171" t="s">
         <v>191</v>
       </c>
       <c r="D25" s="51" t="s">
@@ -3033,9 +3134,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="131"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="157"/>
       <c r="D26" s="52" t="s">
         <v>159</v>
       </c>
@@ -3056,8 +3157,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127"/>
-      <c r="B27" s="141" t="s">
+      <c r="A27" s="156"/>
+      <c r="B27" s="166" t="s">
         <v>206</v>
       </c>
       <c r="C27" s="64" t="s">
@@ -3083,9 +3184,9 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="141" t="s">
+      <c r="A28" s="156"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="166" t="s">
         <v>189</v>
       </c>
       <c r="D28" s="44" t="s">
@@ -3103,14 +3204,14 @@
       <c r="H28" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="124">
+      <c r="I28" s="152">
         <v>0.71</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="143"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="170"/>
       <c r="D29" s="46" t="s">
         <v>163</v>
       </c>
@@ -3126,13 +3227,13 @@
       <c r="H29" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="I29" s="147"/>
+      <c r="I29" s="154"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="155" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="141" t="s">
+      <c r="B30" s="166" t="s">
         <v>281</v>
       </c>
       <c r="C30" s="95" t="s">
@@ -3158,8 +3259,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127"/>
-      <c r="B31" s="142"/>
+      <c r="A31" s="156"/>
+      <c r="B31" s="169"/>
       <c r="C31" s="96" t="s">
         <v>26</v>
       </c>
@@ -3183,8 +3284,8 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
-      <c r="B32" s="141" t="s">
+      <c r="A32" s="157"/>
+      <c r="B32" s="166" t="s">
         <v>282</v>
       </c>
       <c r="C32" s="97" t="s">
@@ -3210,8 +3311,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
-      <c r="B33" s="143"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="96" t="s">
         <v>198</v>
       </c>
@@ -3235,8 +3336,8 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="129" t="s">
+      <c r="A34" s="156"/>
+      <c r="B34" s="171" t="s">
         <v>283</v>
       </c>
       <c r="C34" s="98" t="s">
@@ -3262,8 +3363,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127"/>
-      <c r="B35" s="133"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="99" t="s">
         <v>197</v>
       </c>
@@ -3287,7 +3388,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
+      <c r="A36" s="158"/>
       <c r="B36" s="105" t="s">
         <v>284</v>
       </c>
@@ -3326,6 +3427,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="A6:A29"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A30:A36"/>
     <mergeCell ref="I2:I5"/>
@@ -3342,29 +3466,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:C5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="A6:A29"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3373,17 +3474,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE74D46-C036-467C-82A9-D4CCBDD7F69E}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE74D46-C036-467C-82A9-D4CCBDD7F69E}">
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:I36"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" style="13" bestFit="1" customWidth="1"/>
@@ -3423,812 +3524,1035 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="176"/>
       <c r="D2" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="179" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="124" t="s">
+      <c r="G2" s="152" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="152" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="177"/>
       <c r="D3" s="45" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="125"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="153"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="125"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
+      <c r="A5" s="158"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="178"/>
       <c r="D5" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="137"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="147"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="154"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="154"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="157" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="117" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="180" t="s">
         <v>280</v>
       </c>
-      <c r="G6" s="125" t="s">
+      <c r="G6" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="161" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="124" t="s">
+      <c r="I6" s="152" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="131"/>
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
       <c r="D7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="117" t="s">
         <v>246</v>
       </c>
-      <c r="F7" s="136"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="125"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="153"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="131"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="157"/>
       <c r="D8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="117" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="125"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="153"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="133"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="F9" s="137"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="147"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="129" t="s">
+      <c r="F9" s="181"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="154"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="115" t="s">
+      <c r="E10" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="67" t="s">
         <v>215</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="67" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="117" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="108" t="s">
+    <row r="11" spans="1:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="118" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="179" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="161" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="180"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="153"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="111" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" s="180"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="153"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="156"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="181"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="154"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="156"/>
+      <c r="B16" s="155" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="179" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16" s="161" t="s">
+        <v>221</v>
+      </c>
+      <c r="I16" s="152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="180"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="153"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="F18" s="180"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="153"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="180"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="154"/>
+    </row>
+    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="166" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="173" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="159" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="164" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="156"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="174"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="160"/>
+    </row>
+    <row r="22" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="F22" s="175"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="160"/>
+    </row>
+    <row r="23" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="156"/>
+      <c r="B23" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="F23" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="I23" s="106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="156"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="166" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="155"/>
+      <c r="I24" s="152">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="158"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" s="115" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="158"/>
+      <c r="I25" s="154"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="155" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="166" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="119" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="128" t="s">
+        <v>236</v>
+      </c>
+      <c r="I26" s="90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="156"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E27" s="94" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="125" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="114"/>
-      <c r="I11" s="107" t="s">
+      <c r="H27" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="130" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="116" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="119" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="107" t="s">
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="157"/>
+      <c r="B28" s="166" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="119" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="I28" s="131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="157"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="96" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="F29" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="125" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="129" t="s">
+        <v>237</v>
+      </c>
+      <c r="I29" s="130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="156"/>
+      <c r="B30" s="171" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="F30" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="124" t="s">
         <v>224</v>
       </c>
-      <c r="H12" s="113" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="109" t="s">
+      <c r="H30" s="128" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="131" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="108" t="s">
+    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="156"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="123" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="113" t="s">
+      <c r="G31" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="129" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="110" t="s">
+    </row>
+    <row r="32" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="158"/>
+      <c r="B32" s="105" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="132" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="133" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" s="126" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="129" t="s">
-        <v>171</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="115" t="s">
-        <v>250</v>
-      </c>
-      <c r="F14" s="135" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="148" t="s">
-        <v>220</v>
-      </c>
-      <c r="I14" s="124" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="125"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="116" t="s">
-        <v>252</v>
-      </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="125"/>
-    </row>
-    <row r="17" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="133"/>
-      <c r="D17" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="117" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="147"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="126" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="129" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="115" t="s">
-        <v>254</v>
-      </c>
-      <c r="F18" s="135" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="148" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="124" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="116" t="s">
-        <v>255</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="125"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="125"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="127"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="147"/>
-    </row>
-    <row r="22" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="141" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>260</v>
-      </c>
-      <c r="F22" s="144" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="138" t="s">
-        <v>203</v>
-      </c>
-      <c r="H22" s="151" t="s">
-        <v>223</v>
-      </c>
-      <c r="I22" s="138" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="145"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="139"/>
-    </row>
-    <row r="24" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="139"/>
-    </row>
-    <row r="25" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="127"/>
-      <c r="C25" s="129" t="s">
-        <v>191</v>
-      </c>
-      <c r="D25" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="54" t="s">
+      <c r="G32" s="125" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="I32" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="H25" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="85" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="127"/>
-      <c r="B27" s="141" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="64" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="74" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="G27" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="H27" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="I27" s="106" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="115" t="s">
-        <v>267</v>
-      </c>
-      <c r="F28" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="I28" s="124">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="128"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="F29" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>224</v>
-      </c>
-      <c r="H29" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="I29" s="147"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="141" t="s">
-        <v>281</v>
-      </c>
-      <c r="C30" s="95" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="E30" s="115" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="I30" s="90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="127"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="96" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="E31" s="94" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="88" t="s">
-        <v>240</v>
-      </c>
-      <c r="I31" s="91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="131"/>
-      <c r="B32" s="141" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="E32" s="115" t="s">
-        <v>272</v>
-      </c>
-      <c r="F32" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" s="111" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="88" t="s">
-        <v>239</v>
-      </c>
-      <c r="I32" s="91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
-      <c r="B33" s="143"/>
-      <c r="C33" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="E33" s="117" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="I33" s="91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="127"/>
-      <c r="B34" s="129" t="s">
-        <v>283</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E34" s="115" t="s">
-        <v>263</v>
-      </c>
-      <c r="F34" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="88" t="s">
-        <v>279</v>
-      </c>
-      <c r="I34" s="91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="127"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="E35" s="117" t="s">
-        <v>231</v>
-      </c>
-      <c r="F35" s="120" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="121" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" s="88" t="s">
-        <v>286</v>
-      </c>
-      <c r="I35" s="91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="128"/>
-      <c r="B36" s="105" t="s">
-        <v>284</v>
-      </c>
-      <c r="C36" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="D36" s="101" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="102" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="103" t="s">
-        <v>224</v>
-      </c>
-      <c r="H36" s="89" t="s">
-        <v>277</v>
-      </c>
-      <c r="I36" s="92" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="122"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="122"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
+  <mergeCells count="37">
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B16:B22"/>
     <mergeCell ref="I6:I9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="A6:A29"/>
-    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H16:H19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9B2455-38B3-43FA-9E31-42AECC87327B}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" style="140" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="134" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="150" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="140" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" style="147" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="140" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="142" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="138" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="138" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="185" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="148" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="185"/>
+      <c r="B4" s="183"/>
+      <c r="C4" s="148" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E4" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="185"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="148" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="138" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="185"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="148" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="185"/>
+      <c r="B7" s="183" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="148" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="185"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="151" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="F8" s="143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="185"/>
+      <c r="B9" s="184" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="148" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="138" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="138" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="185"/>
+      <c r="B10" s="184"/>
+      <c r="C10" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>303</v>
+      </c>
+      <c r="F10" s="138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="184" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="143" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="143" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="183"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="143" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="183"/>
+      <c r="B13" s="184" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="144" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="143" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="143" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="183"/>
+      <c r="B15" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="143" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="139"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="146"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B67ACD1-4F9A-4A75-9BB2-737E89711034}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:F38"/>
     </sheetView>
   </sheetViews>
@@ -4271,131 +4595,131 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="199" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="158"/>
+      <c r="C2" s="214"/>
       <c r="D2" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="17"/>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="205" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="G2" s="208" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="156"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="159"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
       <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="165"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="195"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="156"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="195"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="157"/>
-      <c r="B5" s="160"/>
-      <c r="C5" s="160"/>
+      <c r="A5" s="201"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
       <c r="D5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="18"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="166"/>
+      <c r="F5" s="207"/>
+      <c r="G5" s="196"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
+      <c r="A6" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="202" t="s">
         <v>37</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="205" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="164" t="s">
+      <c r="G6" s="208" t="s">
         <v>178</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="156"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="168"/>
+      <c r="A7" s="200"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="165"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="195"/>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="168"/>
+      <c r="A8" s="200"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="165"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="195"/>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="169"/>
+      <c r="A9" s="200"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="18"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="166"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="196"/>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
     </row>
     <row r="10" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="167" t="s">
+      <c r="A10" s="200"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="202" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -4412,9 +4736,9 @@
       <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="168"/>
+      <c r="A11" s="200"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="203"/>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -4429,9 +4753,9 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="169"/>
+      <c r="A12" s="200"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="204"/>
       <c r="D12" s="18" t="s">
         <v>155</v>
       </c>
@@ -4444,198 +4768,198 @@
       <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="167" t="s">
+      <c r="A13" s="200"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="202" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="17"/>
-      <c r="F13" s="161" t="s">
+      <c r="F13" s="205" t="s">
         <v>165</v>
       </c>
-      <c r="G13" s="164" t="s">
+      <c r="G13" s="208" t="s">
         <v>181</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
-      <c r="C14" s="169"/>
+      <c r="A14" s="200"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="204"/>
       <c r="D14" s="2" t="s">
         <v>156</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="165"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="195"/>
       <c r="H14" s="25"/>
       <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="156"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="167" t="s">
+      <c r="A15" s="200"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="202" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="164" t="s">
+      <c r="G15" s="208" t="s">
         <v>181</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="168"/>
+      <c r="A16" s="200"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="203"/>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="165"/>
+      <c r="F16" s="217"/>
+      <c r="G16" s="195"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="156"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="168"/>
+      <c r="A17" s="200"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="165"/>
+      <c r="F17" s="217"/>
+      <c r="G17" s="195"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="156"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="169"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="204"/>
       <c r="D18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="18"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="166"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="196"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="156"/>
-      <c r="B19" s="155" t="s">
+      <c r="A19" s="200"/>
+      <c r="B19" s="199" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="167" t="s">
+      <c r="C19" s="202" t="s">
         <v>154</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="17"/>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="205" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="164" t="s">
+      <c r="G19" s="208" t="s">
         <v>182</v>
       </c>
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="156"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="168"/>
+      <c r="A20" s="200"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="203"/>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="165"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="195"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="156"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="168"/>
+      <c r="A21" s="200"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="203"/>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="165"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="195"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="156"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="169"/>
+      <c r="A22" s="200"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="204"/>
       <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="18"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="166"/>
+      <c r="F22" s="207"/>
+      <c r="G22" s="196"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="156"/>
-      <c r="B23" s="156"/>
-      <c r="C23" s="173" t="s">
+      <c r="A23" s="200"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="193" t="s">
         <v>190</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="19"/>
-      <c r="F23" s="175" t="s">
+      <c r="F23" s="210" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="177" t="s">
+      <c r="G23" s="212" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="156"/>
-      <c r="B24" s="156"/>
-      <c r="C24" s="174"/>
+      <c r="A24" s="200"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="209"/>
       <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="178"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="213"/>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="156"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="174"/>
+      <c r="A25" s="200"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="209"/>
       <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="8"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="178"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="213"/>
     </row>
     <row r="26" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="156"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="167" t="s">
+      <c r="A26" s="200"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="202" t="s">
         <v>191</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -4652,9 +4976,9 @@
       <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="168"/>
+      <c r="A27" s="200"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="203"/>
       <c r="D27" s="8" t="s">
         <v>159</v>
       </c>
@@ -4669,8 +4993,8 @@
       <c r="I27" s="33"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="156"/>
-      <c r="B28" s="184" t="s">
+      <c r="A28" s="200"/>
+      <c r="B28" s="190" t="s">
         <v>43</v>
       </c>
       <c r="C28" s="20" t="s">
@@ -4690,9 +5014,9 @@
       <c r="I28" s="33"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="156"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="173" t="s">
+      <c r="A29" s="200"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="193" t="s">
         <v>189</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -4702,16 +5026,16 @@
       <c r="F29" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="G29" s="165">
+      <c r="G29" s="195">
         <v>0.71</v>
       </c>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="157"/>
-      <c r="B30" s="186"/>
-      <c r="C30" s="187"/>
+      <c r="A30" s="201"/>
+      <c r="B30" s="192"/>
+      <c r="C30" s="194"/>
       <c r="D30" s="18" t="s">
         <v>163</v>
       </c>
@@ -4719,15 +5043,15 @@
       <c r="F30" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G30" s="166"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159" t="s">
+      <c r="A31" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="179" t="s">
+      <c r="B31" s="198" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -4745,8 +5069,8 @@
       <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159"/>
-      <c r="B32" s="179"/>
+      <c r="A32" s="197"/>
+      <c r="B32" s="198"/>
       <c r="C32" s="27" t="s">
         <v>48</v>
       </c>
@@ -4764,9 +5088,9 @@
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="159"/>
-      <c r="B33" s="179"/>
-      <c r="C33" s="159" t="s">
+      <c r="A33" s="197"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="197" t="s">
         <v>184</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4781,9 +5105,9 @@
       <c r="I33" s="33"/>
     </row>
     <row r="34" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="159"/>
+      <c r="A34" s="197"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="197"/>
       <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
@@ -4796,8 +5120,8 @@
       <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="159"/>
-      <c r="B35" s="159" t="s">
+      <c r="A35" s="197"/>
+      <c r="B35" s="197" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -4815,8 +5139,8 @@
       <c r="I35" s="33"/>
     </row>
     <row r="36" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="159"/>
-      <c r="B36" s="159"/>
+      <c r="A36" s="197"/>
+      <c r="B36" s="197"/>
       <c r="C36" s="27" t="s">
         <v>51</v>
       </c>
@@ -4832,8 +5156,8 @@
       <c r="I36" s="33"/>
     </row>
     <row r="37" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159"/>
-      <c r="B37" s="159"/>
+      <c r="A37" s="197"/>
+      <c r="B37" s="197"/>
       <c r="C37" s="27" t="s">
         <v>49</v>
       </c>
@@ -4849,7 +5173,7 @@
       <c r="I37" s="33"/>
     </row>
     <row r="38" spans="1:9" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159"/>
+      <c r="A38" s="197"/>
       <c r="B38" s="27" t="s">
         <v>43</v>
       </c>
@@ -4881,8 +5205,8 @@
       <c r="B40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="182"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="188"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
@@ -4892,8 +5216,8 @@
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="183"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="189"/>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
@@ -4976,23 +5300,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="F2:F5"/>
@@ -5009,13 +5316,30 @@
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="G29:G30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAEB304-5B8A-4309-99B3-B17CEBF3606F}">
   <dimension ref="A1:D68"/>
   <sheetViews>
@@ -5046,13 +5370,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="219" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="188" t="s">
+      <c r="C2" s="220" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -5060,37 +5384,37 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="188"/>
+      <c r="A3" s="219"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="220"/>
       <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="189"/>
-      <c r="B4" s="189"/>
-      <c r="C4" s="188"/>
+      <c r="A4" s="219"/>
+      <c r="B4" s="219"/>
+      <c r="C4" s="220"/>
       <c r="D4" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
-      <c r="B5" s="189"/>
-      <c r="C5" s="188"/>
+      <c r="A5" s="219"/>
+      <c r="B5" s="219"/>
+      <c r="C5" s="220"/>
       <c r="D5" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="219" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="219" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="188" t="s">
+      <c r="C6" s="220" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -5098,25 +5422,25 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
-      <c r="B7" s="189"/>
-      <c r="C7" s="188"/>
+      <c r="A7" s="219"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="220"/>
       <c r="D7" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="188"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="219"/>
+      <c r="C8" s="220"/>
       <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="188" t="s">
+      <c r="A9" s="219"/>
+      <c r="B9" s="219"/>
+      <c r="C9" s="220" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -5124,25 +5448,25 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="188"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="219"/>
+      <c r="C10" s="220"/>
       <c r="D10" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="189"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="188"/>
+      <c r="A11" s="219"/>
+      <c r="B11" s="219"/>
+      <c r="C11" s="220"/>
       <c r="D11" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
-      <c r="B12" s="189"/>
-      <c r="C12" s="188" t="s">
+      <c r="A12" s="219"/>
+      <c r="B12" s="219"/>
+      <c r="C12" s="220" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5150,27 +5474,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
-      <c r="B13" s="189"/>
-      <c r="C13" s="188"/>
+      <c r="A13" s="219"/>
+      <c r="B13" s="219"/>
+      <c r="C13" s="220"/>
       <c r="D13" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
-      <c r="B14" s="189"/>
-      <c r="C14" s="188"/>
+      <c r="A14" s="219"/>
+      <c r="B14" s="219"/>
+      <c r="C14" s="220"/>
       <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
-      <c r="B15" s="189" t="s">
+      <c r="A15" s="219"/>
+      <c r="B15" s="219" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="220" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -5178,25 +5502,25 @@
       </c>
     </row>
     <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="188"/>
+      <c r="A16" s="219"/>
+      <c r="B16" s="219"/>
+      <c r="C16" s="220"/>
       <c r="D16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="188"/>
+      <c r="A17" s="219"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="220"/>
       <c r="D17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="189"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="188" t="s">
+      <c r="A18" s="219"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="220" t="s">
         <v>67</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -5204,27 +5528,27 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="188"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="220"/>
       <c r="D19" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="189"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="220"/>
       <c r="D20" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="189"/>
-      <c r="B21" s="189" t="s">
+      <c r="A21" s="219"/>
+      <c r="B21" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="220" t="s">
         <v>65</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -5232,37 +5556,37 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="189"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="188"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
       <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="188"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="220"/>
       <c r="D23" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="188"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="220"/>
       <c r="D24" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="189" t="s">
+      <c r="A25" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="189" t="s">
+      <c r="B25" s="219" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="220" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -5270,25 +5594,25 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="189"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="188"/>
+      <c r="A26" s="219"/>
+      <c r="B26" s="219"/>
+      <c r="C26" s="220"/>
       <c r="D26" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="189"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="188"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="219"/>
+      <c r="C27" s="220"/>
       <c r="D27" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="189"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="188" t="s">
+      <c r="A28" s="219"/>
+      <c r="B28" s="219"/>
+      <c r="C28" s="220" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -5296,25 +5620,25 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="189"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="188"/>
+      <c r="A29" s="219"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="220"/>
       <c r="D29" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="189"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="188"/>
+      <c r="A30" s="219"/>
+      <c r="B30" s="219"/>
+      <c r="C30" s="220"/>
       <c r="D30" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="189"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="188" t="s">
+      <c r="A31" s="219"/>
+      <c r="B31" s="219"/>
+      <c r="C31" s="220" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -5322,29 +5646,29 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="189"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="188"/>
+      <c r="A32" s="219"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="220"/>
       <c r="D32" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="189"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="188"/>
+      <c r="A33" s="219"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="220"/>
       <c r="D33" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="189" t="s">
+      <c r="A34" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="220" t="s">
         <v>118</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -5352,25 +5676,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="189"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="188"/>
+      <c r="A35" s="219"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="220"/>
       <c r="D35" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="188"/>
+      <c r="A36" s="219"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="220"/>
       <c r="D36" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="189"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="188" t="s">
+      <c r="A37" s="219"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="220" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -5378,27 +5702,27 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
-      <c r="C38" s="188"/>
+      <c r="A38" s="219"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="220"/>
       <c r="D38" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="189"/>
-      <c r="B39" s="189"/>
-      <c r="C39" s="188"/>
+      <c r="A39" s="219"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="220"/>
       <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189" t="s">
+      <c r="A40" s="219"/>
+      <c r="B40" s="219" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="188" t="s">
+      <c r="C40" s="220" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -5406,25 +5730,25 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="189"/>
-      <c r="B41" s="189"/>
-      <c r="C41" s="188"/>
+      <c r="A41" s="219"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="220"/>
       <c r="D41" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="189"/>
-      <c r="B42" s="189"/>
-      <c r="C42" s="188"/>
+      <c r="A42" s="219"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="220"/>
       <c r="D42" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="189"/>
-      <c r="B43" s="189"/>
-      <c r="C43" s="188" t="s">
+      <c r="A43" s="219"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="220" t="s">
         <v>77</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -5432,27 +5756,27 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="189"/>
-      <c r="B44" s="189"/>
-      <c r="C44" s="188"/>
+      <c r="A44" s="219"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="189"/>
-      <c r="B45" s="189"/>
-      <c r="C45" s="188"/>
+      <c r="A45" s="219"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="220"/>
       <c r="D45" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="189"/>
-      <c r="B46" s="189" t="s">
+      <c r="A46" s="219"/>
+      <c r="B46" s="219" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="188" t="s">
+      <c r="C46" s="220" t="s">
         <v>79</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -5460,35 +5784,35 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="189"/>
-      <c r="B47" s="189"/>
-      <c r="C47" s="188"/>
+      <c r="A47" s="219"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="220"/>
       <c r="D47" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="189"/>
-      <c r="B48" s="189"/>
-      <c r="C48" s="188"/>
+      <c r="A48" s="219"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="220"/>
       <c r="D48" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="189"/>
-      <c r="B49" s="189"/>
-      <c r="C49" s="188"/>
+      <c r="A49" s="219"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="220"/>
       <c r="D49" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="189"/>
-      <c r="B50" s="189" t="s">
+      <c r="A50" s="219"/>
+      <c r="B50" s="219" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="188" t="s">
+      <c r="C50" s="220" t="s">
         <v>80</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5496,37 +5820,37 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
-      <c r="B51" s="189"/>
-      <c r="C51" s="188"/>
+      <c r="A51" s="219"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="220"/>
       <c r="D51" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="189"/>
-      <c r="B52" s="189"/>
-      <c r="C52" s="188"/>
+      <c r="A52" s="219"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="220"/>
       <c r="D52" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
-      <c r="B53" s="189"/>
-      <c r="C53" s="188"/>
+      <c r="A53" s="219"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="220"/>
       <c r="D53" s="4" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="189" t="s">
+      <c r="A54" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="189" t="s">
+      <c r="B54" s="219" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="188" t="s">
+      <c r="C54" s="220" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -5534,25 +5858,25 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="189"/>
-      <c r="B55" s="189"/>
-      <c r="C55" s="188"/>
+      <c r="A55" s="219"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="220"/>
       <c r="D55" s="4" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="189"/>
-      <c r="B56" s="189"/>
-      <c r="C56" s="188"/>
+      <c r="A56" s="219"/>
+      <c r="B56" s="219"/>
+      <c r="C56" s="220"/>
       <c r="D56" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="189"/>
-      <c r="B57" s="189"/>
-      <c r="C57" s="188" t="s">
+      <c r="A57" s="219"/>
+      <c r="B57" s="219"/>
+      <c r="C57" s="220" t="s">
         <v>84</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -5560,27 +5884,27 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="189"/>
-      <c r="B58" s="189"/>
-      <c r="C58" s="188"/>
+      <c r="A58" s="219"/>
+      <c r="B58" s="219"/>
+      <c r="C58" s="220"/>
       <c r="D58" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="189"/>
-      <c r="B59" s="189"/>
-      <c r="C59" s="188"/>
+      <c r="A59" s="219"/>
+      <c r="B59" s="219"/>
+      <c r="C59" s="220"/>
       <c r="D59" s="4" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="189"/>
-      <c r="B60" s="189" t="s">
+      <c r="A60" s="219"/>
+      <c r="B60" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="188" t="s">
+      <c r="C60" s="220" t="s">
         <v>85</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -5588,35 +5912,35 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="189"/>
-      <c r="B61" s="189"/>
-      <c r="C61" s="188"/>
+      <c r="A61" s="219"/>
+      <c r="B61" s="219"/>
+      <c r="C61" s="220"/>
       <c r="D61" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="189"/>
-      <c r="B62" s="189"/>
-      <c r="C62" s="188"/>
+      <c r="A62" s="219"/>
+      <c r="B62" s="219"/>
+      <c r="C62" s="220"/>
       <c r="D62" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
-      <c r="B63" s="189"/>
-      <c r="C63" s="188"/>
+      <c r="A63" s="219"/>
+      <c r="B63" s="219"/>
+      <c r="C63" s="220"/>
       <c r="D63" s="4" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="189"/>
-      <c r="B64" s="189" t="s">
+      <c r="A64" s="219"/>
+      <c r="B64" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="188" t="s">
+      <c r="C64" s="220" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -5624,25 +5948,25 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="189"/>
-      <c r="B65" s="189"/>
-      <c r="C65" s="188"/>
+      <c r="A65" s="219"/>
+      <c r="B65" s="219"/>
+      <c r="C65" s="220"/>
       <c r="D65" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="189"/>
-      <c r="B66" s="189"/>
-      <c r="C66" s="188"/>
+      <c r="A66" s="219"/>
+      <c r="B66" s="219"/>
+      <c r="C66" s="220"/>
       <c r="D66" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="189"/>
-      <c r="B67" s="189"/>
-      <c r="C67" s="188"/>
+      <c r="A67" s="219"/>
+      <c r="B67" s="219"/>
+      <c r="C67" s="220"/>
       <c r="D67" s="4" t="s">
         <v>148</v>
       </c>
@@ -5663,27 +5987,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A6:A24"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="B60:B63"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B25:B33"/>
     <mergeCell ref="C64:C67"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="C54:C56"/>
@@ -5700,6 +6003,27 @@
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="A34:A53"/>
     <mergeCell ref="C57:C59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A6:A24"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
